--- a/spreadsheets/new/GSE89322.0.xlsx
+++ b/spreadsheets/new/GSE89322.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103E9A07-F7E0-A844-8419-80C0E27CDA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25700" windowHeight="17040" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
     <sheet name="Sequencing_protocol" sheetId="9" r:id="rId9"/>
     <sheet name="Specimen_from_organism" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4579" uniqueCount="1695">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -5105,13 +5111,16 @@
   </si>
   <si>
     <t>collection_protocol.protocol_core.protocol_id</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5148,6 +5157,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5194,7 +5211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5226,9 +5243,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5260,6 +5295,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5435,75 +5488,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5682,7 +5733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -5861,7 +5912,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -6019,7 +6070,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -6198,12 +6249,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -6232,7 +6283,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -6261,7 +6312,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -6290,7 +6341,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>220</v>
       </c>
@@ -6319,7 +6370,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -6348,7 +6399,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>224</v>
       </c>
@@ -6377,7 +6428,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -6406,7 +6457,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>228</v>
       </c>
@@ -6435,7 +6486,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>230</v>
       </c>
@@ -6464,7 +6515,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>232</v>
       </c>
@@ -6493,7 +6544,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>234</v>
       </c>
@@ -6522,7 +6573,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>236</v>
       </c>
@@ -6551,7 +6602,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>238</v>
       </c>
@@ -6580,7 +6631,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>240</v>
       </c>
@@ -6609,7 +6660,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>242</v>
       </c>
@@ -6638,7 +6689,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>244</v>
       </c>
@@ -6667,7 +6718,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>246</v>
       </c>
@@ -6696,7 +6747,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>248</v>
       </c>
@@ -6725,7 +6776,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>250</v>
       </c>
@@ -6754,7 +6805,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>252</v>
       </c>
@@ -6783,7 +6834,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>254</v>
       </c>
@@ -6812,7 +6863,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>256</v>
       </c>
@@ -6841,7 +6892,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>258</v>
       </c>
@@ -6870,7 +6921,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>260</v>
       </c>
@@ -6899,7 +6950,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>262</v>
       </c>
@@ -6928,7 +6979,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>264</v>
       </c>
@@ -6957,7 +7008,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>266</v>
       </c>
@@ -6986,7 +7037,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>268</v>
       </c>
@@ -7015,7 +7066,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>270</v>
       </c>
@@ -7044,7 +7095,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>272</v>
       </c>
@@ -7073,7 +7124,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>274</v>
       </c>
@@ -7102,7 +7153,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>276</v>
       </c>
@@ -7131,7 +7182,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>278</v>
       </c>
@@ -7160,7 +7211,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>280</v>
       </c>
@@ -7189,7 +7240,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>282</v>
       </c>
@@ -7218,7 +7269,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>284</v>
       </c>
@@ -7247,7 +7298,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>286</v>
       </c>
@@ -7276,7 +7327,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>288</v>
       </c>
@@ -7305,7 +7356,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>290</v>
       </c>
@@ -7334,7 +7385,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>292</v>
       </c>
@@ -7363,7 +7414,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>294</v>
       </c>
@@ -7392,7 +7443,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>296</v>
       </c>
@@ -7421,7 +7472,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>298</v>
       </c>
@@ -7450,7 +7501,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -7479,7 +7530,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>302</v>
       </c>
@@ -7508,7 +7559,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>304</v>
       </c>
@@ -7537,7 +7588,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>306</v>
       </c>
@@ -7566,7 +7617,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>308</v>
       </c>
@@ -7595,7 +7646,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -7624,7 +7675,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -7653,7 +7704,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>314</v>
       </c>
@@ -7682,7 +7733,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -7711,7 +7762,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>318</v>
       </c>
@@ -7740,7 +7791,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>320</v>
       </c>
@@ -7769,7 +7820,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>322</v>
       </c>
@@ -7798,7 +7849,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>324</v>
       </c>
@@ -7827,7 +7878,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>326</v>
       </c>
@@ -7856,7 +7907,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>328</v>
       </c>
@@ -7885,7 +7936,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>330</v>
       </c>
@@ -7914,7 +7965,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>332</v>
       </c>
@@ -7943,7 +7994,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>334</v>
       </c>
@@ -7972,7 +8023,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>336</v>
       </c>
@@ -8001,7 +8052,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>338</v>
       </c>
@@ -8030,7 +8081,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>340</v>
       </c>
@@ -8059,7 +8110,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>342</v>
       </c>
@@ -8088,7 +8139,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>344</v>
       </c>
@@ -8117,7 +8168,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>346</v>
       </c>
@@ -8146,7 +8197,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>348</v>
       </c>
@@ -8175,7 +8226,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>350</v>
       </c>
@@ -8204,7 +8255,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>352</v>
       </c>
@@ -8233,7 +8284,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>354</v>
       </c>
@@ -8262,7 +8313,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>359</v>
       </c>
@@ -8291,7 +8342,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>361</v>
       </c>
@@ -8320,7 +8371,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>363</v>
       </c>
@@ -8349,7 +8400,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>365</v>
       </c>
@@ -8378,7 +8429,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>367</v>
       </c>
@@ -8407,7 +8458,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>369</v>
       </c>
@@ -8436,7 +8487,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>371</v>
       </c>
@@ -8465,7 +8516,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>373</v>
       </c>
@@ -8494,7 +8545,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>375</v>
       </c>
@@ -8523,7 +8574,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>377</v>
       </c>
@@ -8552,7 +8603,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>379</v>
       </c>
@@ -8581,7 +8632,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>381</v>
       </c>
@@ -8610,7 +8661,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>383</v>
       </c>
@@ -8639,7 +8690,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>385</v>
       </c>
@@ -8668,7 +8719,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>387</v>
       </c>
@@ -8697,7 +8748,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>389</v>
       </c>
@@ -8726,7 +8777,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>391</v>
       </c>
@@ -8755,7 +8806,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>393</v>
       </c>
@@ -8784,7 +8835,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="95" spans="1:43">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>395</v>
       </c>
@@ -8813,7 +8864,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="96" spans="1:43">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>397</v>
       </c>
@@ -8842,7 +8893,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>399</v>
       </c>
@@ -8871,7 +8922,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>401</v>
       </c>
@@ -8900,7 +8951,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="99" spans="1:43">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>403</v>
       </c>
@@ -8929,7 +8980,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>405</v>
       </c>
@@ -8958,7 +9009,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="101" spans="1:43">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>407</v>
       </c>
@@ -8987,7 +9038,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>409</v>
       </c>
@@ -9016,7 +9067,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>411</v>
       </c>
@@ -9045,7 +9096,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>413</v>
       </c>
@@ -9074,7 +9125,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>415</v>
       </c>
@@ -9103,7 +9154,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>417</v>
       </c>
@@ -9132,7 +9183,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>419</v>
       </c>
@@ -9161,7 +9212,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>421</v>
       </c>
@@ -9190,7 +9241,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="1:43">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>423</v>
       </c>
@@ -9219,7 +9270,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="110" spans="1:43">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>425</v>
       </c>
@@ -9248,7 +9299,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="111" spans="1:43">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>427</v>
       </c>
@@ -9277,7 +9328,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="112" spans="1:43">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>429</v>
       </c>
@@ -9306,7 +9357,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="113" spans="1:43">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>431</v>
       </c>
@@ -9335,7 +9386,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="114" spans="1:43">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>433</v>
       </c>
@@ -9364,7 +9415,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="115" spans="1:43">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>435</v>
       </c>
@@ -9393,7 +9444,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="116" spans="1:43">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>437</v>
       </c>
@@ -9422,7 +9473,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="117" spans="1:43">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>439</v>
       </c>
@@ -9451,7 +9502,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:43">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>441</v>
       </c>
@@ -9480,7 +9531,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" spans="1:43">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>443</v>
       </c>
@@ -9509,7 +9560,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="120" spans="1:43">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>445</v>
       </c>
@@ -9538,7 +9589,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:43">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>447</v>
       </c>
@@ -9567,7 +9618,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="122" spans="1:43">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>449</v>
       </c>
@@ -9596,7 +9647,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="123" spans="1:43">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>451</v>
       </c>
@@ -9625,7 +9676,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="124" spans="1:43">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>453</v>
       </c>
@@ -9654,7 +9705,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:43">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>455</v>
       </c>
@@ -9683,7 +9734,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="126" spans="1:43">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>457</v>
       </c>
@@ -9712,7 +9763,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="127" spans="1:43">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>459</v>
       </c>
@@ -9741,7 +9792,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="128" spans="1:43">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>461</v>
       </c>
@@ -9770,7 +9821,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="129" spans="1:43">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>463</v>
       </c>
@@ -9799,7 +9850,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="130" spans="1:43">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>465</v>
       </c>
@@ -9828,7 +9879,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="131" spans="1:43">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>467</v>
       </c>
@@ -9857,7 +9908,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="132" spans="1:43">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>469</v>
       </c>
@@ -9886,7 +9937,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="133" spans="1:43">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>471</v>
       </c>
@@ -9915,7 +9966,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="134" spans="1:43">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>473</v>
       </c>
@@ -9944,7 +9995,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="135" spans="1:43">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>475</v>
       </c>
@@ -9973,7 +10024,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="136" spans="1:43">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>477</v>
       </c>
@@ -10002,7 +10053,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="137" spans="1:43">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>479</v>
       </c>
@@ -10031,7 +10082,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="138" spans="1:43">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>481</v>
       </c>
@@ -10060,7 +10111,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="139" spans="1:43">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>486</v>
       </c>
@@ -10089,7 +10140,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="140" spans="1:43">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>488</v>
       </c>
@@ -10118,7 +10169,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="141" spans="1:43">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>490</v>
       </c>
@@ -10147,7 +10198,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="142" spans="1:43">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>492</v>
       </c>
@@ -10176,7 +10227,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="143" spans="1:43">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>494</v>
       </c>
@@ -10205,7 +10256,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="144" spans="1:43">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>496</v>
       </c>
@@ -10234,7 +10285,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="145" spans="1:43">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>498</v>
       </c>
@@ -10263,7 +10314,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="146" spans="1:43">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>500</v>
       </c>
@@ -10292,7 +10343,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="147" spans="1:43">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>502</v>
       </c>
@@ -10321,7 +10372,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="148" spans="1:43">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>504</v>
       </c>
@@ -10350,7 +10401,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="149" spans="1:43">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>506</v>
       </c>
@@ -10379,7 +10430,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="150" spans="1:43">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>508</v>
       </c>
@@ -10408,7 +10459,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="151" spans="1:43">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>510</v>
       </c>
@@ -10437,7 +10488,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="152" spans="1:43">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>512</v>
       </c>
@@ -10466,7 +10517,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="153" spans="1:43">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>514</v>
       </c>
@@ -10495,7 +10546,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="154" spans="1:43">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>516</v>
       </c>
@@ -10524,7 +10575,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="155" spans="1:43">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>518</v>
       </c>
@@ -10553,7 +10604,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="156" spans="1:43">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>520</v>
       </c>
@@ -10582,7 +10633,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="157" spans="1:43">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>522</v>
       </c>
@@ -10611,7 +10662,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="158" spans="1:43">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>524</v>
       </c>
@@ -10640,7 +10691,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="159" spans="1:43">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>526</v>
       </c>
@@ -10669,7 +10720,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="160" spans="1:43">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>528</v>
       </c>
@@ -10698,7 +10749,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="161" spans="1:43">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>530</v>
       </c>
@@ -10727,7 +10778,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="162" spans="1:43">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>532</v>
       </c>
@@ -10756,7 +10807,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="163" spans="1:43">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>534</v>
       </c>
@@ -10785,7 +10836,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="164" spans="1:43">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>536</v>
       </c>
@@ -10814,7 +10865,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="165" spans="1:43">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>538</v>
       </c>
@@ -10843,7 +10894,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="166" spans="1:43">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>540</v>
       </c>
@@ -10872,7 +10923,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="167" spans="1:43">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>542</v>
       </c>
@@ -10901,7 +10952,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="168" spans="1:43">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>544</v>
       </c>
@@ -10930,7 +10981,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="169" spans="1:43">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>546</v>
       </c>
@@ -10959,7 +11010,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="170" spans="1:43">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>548</v>
       </c>
@@ -10988,7 +11039,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="171" spans="1:43">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>550</v>
       </c>
@@ -11017,7 +11068,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="172" spans="1:43">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>552</v>
       </c>
@@ -11046,7 +11097,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="173" spans="1:43">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>554</v>
       </c>
@@ -11075,7 +11126,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="174" spans="1:43">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>556</v>
       </c>
@@ -11104,7 +11155,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="175" spans="1:43">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>558</v>
       </c>
@@ -11133,7 +11184,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="176" spans="1:43">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>560</v>
       </c>
@@ -11162,7 +11213,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="177" spans="1:43">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>562</v>
       </c>
@@ -11191,7 +11242,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="178" spans="1:43">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>564</v>
       </c>
@@ -11220,7 +11271,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="179" spans="1:43">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>566</v>
       </c>
@@ -11249,7 +11300,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="180" spans="1:43">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>568</v>
       </c>
@@ -11278,7 +11329,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="181" spans="1:43">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>570</v>
       </c>
@@ -11307,7 +11358,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="182" spans="1:43">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>572</v>
       </c>
@@ -11336,7 +11387,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="183" spans="1:43">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>574</v>
       </c>
@@ -11365,7 +11416,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="184" spans="1:43">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>576</v>
       </c>
@@ -11394,7 +11445,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="185" spans="1:43">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>578</v>
       </c>
@@ -11423,7 +11474,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="186" spans="1:43">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>580</v>
       </c>
@@ -11452,7 +11503,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="187" spans="1:43">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>582</v>
       </c>
@@ -11481,7 +11532,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="188" spans="1:43">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>584</v>
       </c>
@@ -11510,7 +11561,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="189" spans="1:43">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>586</v>
       </c>
@@ -11539,7 +11590,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="190" spans="1:43">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>588</v>
       </c>
@@ -11568,7 +11619,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="191" spans="1:43">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>590</v>
       </c>
@@ -11597,7 +11648,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="192" spans="1:43">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>592</v>
       </c>
@@ -11626,7 +11677,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="193" spans="1:43">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>594</v>
       </c>
@@ -11655,7 +11706,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="194" spans="1:43">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>596</v>
       </c>
@@ -11684,7 +11735,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="195" spans="1:43">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>602</v>
       </c>
@@ -11713,7 +11764,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="196" spans="1:43">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>607</v>
       </c>
@@ -11742,7 +11793,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="197" spans="1:43">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>609</v>
       </c>
@@ -11771,7 +11822,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="198" spans="1:43">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>611</v>
       </c>
@@ -11800,7 +11851,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="199" spans="1:43">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>616</v>
       </c>
@@ -11829,7 +11880,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="200" spans="1:43">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>621</v>
       </c>
@@ -11858,7 +11909,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="201" spans="1:43">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>623</v>
       </c>
@@ -11887,7 +11938,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="202" spans="1:43">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>625</v>
       </c>
@@ -11916,7 +11967,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="203" spans="1:43">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>627</v>
       </c>
@@ -11945,7 +11996,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="204" spans="1:43">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>629</v>
       </c>
@@ -11974,7 +12025,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="205" spans="1:43">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>631</v>
       </c>
@@ -12009,76 +12060,73 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -12260,7 +12308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -12442,7 +12490,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -12603,7 +12651,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -12785,12 +12833,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -12804,7 +12852,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>357</v>
       </c>
@@ -12818,7 +12866,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>484</v>
       </c>
@@ -12832,7 +12880,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>600</v>
       </c>
@@ -12846,7 +12894,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>605</v>
       </c>
@@ -12860,7 +12908,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>614</v>
       </c>
@@ -12874,7 +12922,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>619</v>
       </c>
@@ -12894,93 +12942,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>633</v>
       </c>
@@ -13213,7 +13259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13446,7 +13492,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -13661,7 +13707,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>737</v>
       </c>
@@ -13894,12 +13940,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>798</v>
       </c>
@@ -13916,28 +13962,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="141.7109375" customWidth="1"/>
-    <col min="11" max="11" width="62.7109375" customWidth="1"/>
-    <col min="12" max="12" width="62.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="67.6640625" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" customWidth="1"/>
+    <col min="9" max="10" width="141.6640625" customWidth="1"/>
+    <col min="11" max="12" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -13975,7 +14019,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -14013,7 +14057,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -14045,7 +14089,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -14083,12 +14127,12 @@
         <v>835</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>215</v>
       </c>
@@ -14096,7 +14140,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>358</v>
       </c>
@@ -14104,7 +14148,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>485</v>
       </c>
@@ -14112,7 +14156,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>601</v>
       </c>
@@ -14120,7 +14164,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>606</v>
       </c>
@@ -14128,7 +14172,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>615</v>
       </c>
@@ -14136,7 +14180,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>620</v>
       </c>
@@ -14150,67 +14194,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="271.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="271.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>836</v>
       </c>
@@ -14365,7 +14407,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -14520,7 +14562,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -14669,7 +14711,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>926</v>
       </c>
@@ -14824,12 +14866,12 @@
         <v>976</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>977</v>
       </c>
@@ -14846,25 +14888,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="994.7109375" customWidth="1"/>
-    <col min="4" max="4" width="384.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="994.6640625" customWidth="1"/>
+    <col min="4" max="4" width="384.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>980</v>
       </c>
@@ -14893,7 +14934,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>989</v>
       </c>
@@ -14922,7 +14963,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>998</v>
       </c>
@@ -14951,7 +14992,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1007</v>
       </c>
@@ -14980,12 +15021,12 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1016</v>
       </c>
@@ -15011,28 +15052,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1022</v>
       </c>
@@ -15070,7 +15111,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1034</v>
       </c>
@@ -15108,7 +15149,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1044</v>
       </c>
@@ -15146,7 +15187,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1055</v>
       </c>
@@ -15184,12 +15225,12 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1067</v>
       </c>
@@ -15206,17 +15247,17 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1074</v>
       </c>
@@ -15227,21 +15268,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1075</v>
       </c>
@@ -15258,7 +15299,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1079</v>
       </c>
@@ -15275,7 +15316,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1084</v>
       </c>
@@ -15292,7 +15333,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1089</v>
       </c>
@@ -15309,12 +15350,12 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>1094</v>
       </c>
@@ -15325,46 +15366,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD205"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1095</v>
       </c>
@@ -15456,7 +15495,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1107</v>
       </c>
@@ -15548,7 +15587,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1116</v>
       </c>
@@ -15628,7 +15667,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1126</v>
       </c>
@@ -15720,12 +15759,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1138</v>
       </c>
@@ -15748,7 +15787,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1143</v>
       </c>
@@ -15771,7 +15810,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1145</v>
       </c>
@@ -15794,7 +15833,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1147</v>
       </c>
@@ -15817,7 +15856,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1149</v>
       </c>
@@ -15840,7 +15879,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1151</v>
       </c>
@@ -15863,7 +15902,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1153</v>
       </c>
@@ -15886,7 +15925,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1155</v>
       </c>
@@ -15909,7 +15948,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1157</v>
       </c>
@@ -15932,7 +15971,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1159</v>
       </c>
@@ -15955,7 +15994,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1161</v>
       </c>
@@ -15978,7 +16017,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1163</v>
       </c>
@@ -16001,7 +16040,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1165</v>
       </c>
@@ -16024,7 +16063,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1167</v>
       </c>
@@ -16047,7 +16086,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1169</v>
       </c>
@@ -16070,7 +16109,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1171</v>
       </c>
@@ -16093,7 +16132,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1173</v>
       </c>
@@ -16116,7 +16155,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1175</v>
       </c>
@@ -16139,7 +16178,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1177</v>
       </c>
@@ -16162,7 +16201,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1179</v>
       </c>
@@ -16185,7 +16224,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1181</v>
       </c>
@@ -16208,7 +16247,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1183</v>
       </c>
@@ -16231,7 +16270,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1185</v>
       </c>
@@ -16254,7 +16293,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1187</v>
       </c>
@@ -16277,7 +16316,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1189</v>
       </c>
@@ -16300,7 +16339,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1191</v>
       </c>
@@ -16323,7 +16362,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1193</v>
       </c>
@@ -16346,7 +16385,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1195</v>
       </c>
@@ -16369,7 +16408,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1197</v>
       </c>
@@ -16392,7 +16431,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1199</v>
       </c>
@@ -16415,7 +16454,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1201</v>
       </c>
@@ -16438,7 +16477,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1203</v>
       </c>
@@ -16461,7 +16500,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1205</v>
       </c>
@@ -16484,7 +16523,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1207</v>
       </c>
@@ -16507,7 +16546,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1209</v>
       </c>
@@ -16530,7 +16569,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1211</v>
       </c>
@@ -16553,7 +16592,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1213</v>
       </c>
@@ -16576,7 +16615,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1215</v>
       </c>
@@ -16599,7 +16638,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1217</v>
       </c>
@@ -16622,7 +16661,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1219</v>
       </c>
@@ -16645,7 +16684,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1221</v>
       </c>
@@ -16668,7 +16707,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1223</v>
       </c>
@@ -16691,7 +16730,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1225</v>
       </c>
@@ -16714,7 +16753,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1227</v>
       </c>
@@ -16737,7 +16776,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1229</v>
       </c>
@@ -16760,7 +16799,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1231</v>
       </c>
@@ -16783,7 +16822,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1233</v>
       </c>
@@ -16806,7 +16845,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1235</v>
       </c>
@@ -16829,7 +16868,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1237</v>
       </c>
@@ -16852,7 +16891,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1239</v>
       </c>
@@ -16875,7 +16914,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1241</v>
       </c>
@@ -16898,7 +16937,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1243</v>
       </c>
@@ -16921,7 +16960,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1245</v>
       </c>
@@ -16944,7 +16983,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1247</v>
       </c>
@@ -16967,7 +17006,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1249</v>
       </c>
@@ -16990,7 +17029,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1251</v>
       </c>
@@ -17013,7 +17052,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1253</v>
       </c>
@@ -17036,7 +17075,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1255</v>
       </c>
@@ -17059,7 +17098,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1257</v>
       </c>
@@ -17082,7 +17121,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1259</v>
       </c>
@@ -17105,7 +17144,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1261</v>
       </c>
@@ -17128,7 +17167,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1263</v>
       </c>
@@ -17151,7 +17190,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1265</v>
       </c>
@@ -17174,7 +17213,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1267</v>
       </c>
@@ -17197,7 +17236,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1269</v>
       </c>
@@ -17220,7 +17259,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1271</v>
       </c>
@@ -17243,7 +17282,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1273</v>
       </c>
@@ -17266,7 +17305,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1275</v>
       </c>
@@ -17289,7 +17328,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1277</v>
       </c>
@@ -17312,7 +17351,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1279</v>
       </c>
@@ -17335,7 +17374,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1281</v>
       </c>
@@ -17358,7 +17397,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1283</v>
       </c>
@@ -17381,7 +17420,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1285</v>
       </c>
@@ -17404,7 +17443,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1287</v>
       </c>
@@ -17427,7 +17466,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1289</v>
       </c>
@@ -17450,7 +17489,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1291</v>
       </c>
@@ -17473,7 +17512,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1293</v>
       </c>
@@ -17496,7 +17535,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1295</v>
       </c>
@@ -17519,7 +17558,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1297</v>
       </c>
@@ -17542,7 +17581,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1299</v>
       </c>
@@ -17565,7 +17604,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1301</v>
       </c>
@@ -17588,7 +17627,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1303</v>
       </c>
@@ -17611,7 +17650,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1305</v>
       </c>
@@ -17634,7 +17673,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1307</v>
       </c>
@@ -17657,7 +17696,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1309</v>
       </c>
@@ -17680,7 +17719,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1311</v>
       </c>
@@ -17703,7 +17742,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1313</v>
       </c>
@@ -17726,7 +17765,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1315</v>
       </c>
@@ -17749,7 +17788,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1317</v>
       </c>
@@ -17772,7 +17811,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1319</v>
       </c>
@@ -17795,7 +17834,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1321</v>
       </c>
@@ -17818,7 +17857,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1323</v>
       </c>
@@ -17841,7 +17880,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1325</v>
       </c>
@@ -17864,7 +17903,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1327</v>
       </c>
@@ -17887,7 +17926,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1329</v>
       </c>
@@ -17910,7 +17949,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1331</v>
       </c>
@@ -17933,7 +17972,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1333</v>
       </c>
@@ -17956,7 +17995,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1335</v>
       </c>
@@ -17979,7 +18018,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1337</v>
       </c>
@@ -18002,7 +18041,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1339</v>
       </c>
@@ -18025,7 +18064,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1341</v>
       </c>
@@ -18048,7 +18087,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1343</v>
       </c>
@@ -18071,7 +18110,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1345</v>
       </c>
@@ -18094,7 +18133,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1347</v>
       </c>
@@ -18117,7 +18156,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1349</v>
       </c>
@@ -18140,7 +18179,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1351</v>
       </c>
@@ -18163,7 +18202,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1353</v>
       </c>
@@ -18186,7 +18225,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1355</v>
       </c>
@@ -18209,7 +18248,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1357</v>
       </c>
@@ -18232,7 +18271,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1359</v>
       </c>
@@ -18255,7 +18294,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1361</v>
       </c>
@@ -18278,7 +18317,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1363</v>
       </c>
@@ -18301,7 +18340,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1365</v>
       </c>
@@ -18324,7 +18363,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1367</v>
       </c>
@@ -18347,7 +18386,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1369</v>
       </c>
@@ -18370,7 +18409,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1371</v>
       </c>
@@ -18393,7 +18432,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1373</v>
       </c>
@@ -18416,7 +18455,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1375</v>
       </c>
@@ -18439,7 +18478,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1377</v>
       </c>
@@ -18462,7 +18501,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1379</v>
       </c>
@@ -18485,7 +18524,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1381</v>
       </c>
@@ -18508,7 +18547,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1383</v>
       </c>
@@ -18531,7 +18570,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1385</v>
       </c>
@@ -18554,7 +18593,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1387</v>
       </c>
@@ -18577,7 +18616,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1389</v>
       </c>
@@ -18600,7 +18639,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1391</v>
       </c>
@@ -18623,7 +18662,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1393</v>
       </c>
@@ -18646,7 +18685,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1395</v>
       </c>
@@ -18669,7 +18708,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1397</v>
       </c>
@@ -18692,7 +18731,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1399</v>
       </c>
@@ -18715,7 +18754,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1401</v>
       </c>
@@ -18738,7 +18777,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1403</v>
       </c>
@@ -18761,7 +18800,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1405</v>
       </c>
@@ -18784,7 +18823,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1407</v>
       </c>
@@ -18807,7 +18846,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1409</v>
       </c>
@@ -18830,7 +18869,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1411</v>
       </c>
@@ -18853,7 +18892,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1413</v>
       </c>
@@ -18876,7 +18915,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1415</v>
       </c>
@@ -18899,7 +18938,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1417</v>
       </c>
@@ -18922,7 +18961,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1419</v>
       </c>
@@ -18945,7 +18984,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1421</v>
       </c>
@@ -18968,7 +19007,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1423</v>
       </c>
@@ -18991,7 +19030,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1425</v>
       </c>
@@ -19014,7 +19053,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1427</v>
       </c>
@@ -19037,7 +19076,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1429</v>
       </c>
@@ -19060,7 +19099,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1431</v>
       </c>
@@ -19083,7 +19122,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1433</v>
       </c>
@@ -19106,7 +19145,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1435</v>
       </c>
@@ -19129,7 +19168,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1437</v>
       </c>
@@ -19152,7 +19191,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1439</v>
       </c>
@@ -19175,7 +19214,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1441</v>
       </c>
@@ -19198,7 +19237,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1443</v>
       </c>
@@ -19221,7 +19260,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1445</v>
       </c>
@@ -19244,7 +19283,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1447</v>
       </c>
@@ -19267,7 +19306,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1449</v>
       </c>
@@ -19290,7 +19329,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1451</v>
       </c>
@@ -19313,7 +19352,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1453</v>
       </c>
@@ -19336,7 +19375,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1455</v>
       </c>
@@ -19359,7 +19398,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1457</v>
       </c>
@@ -19382,7 +19421,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1459</v>
       </c>
@@ -19405,7 +19444,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1461</v>
       </c>
@@ -19428,7 +19467,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1463</v>
       </c>
@@ -19451,7 +19490,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1465</v>
       </c>
@@ -19474,7 +19513,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1467</v>
       </c>
@@ -19497,7 +19536,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1469</v>
       </c>
@@ -19520,7 +19559,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1471</v>
       </c>
@@ -19543,7 +19582,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1473</v>
       </c>
@@ -19566,7 +19605,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1475</v>
       </c>
@@ -19589,7 +19628,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1477</v>
       </c>
@@ -19612,7 +19651,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1479</v>
       </c>
@@ -19635,7 +19674,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1481</v>
       </c>
@@ -19658,7 +19697,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1483</v>
       </c>
@@ -19681,7 +19720,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1485</v>
       </c>
@@ -19704,7 +19743,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1487</v>
       </c>
@@ -19727,7 +19766,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1489</v>
       </c>
@@ -19750,7 +19789,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1491</v>
       </c>
@@ -19773,7 +19812,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1493</v>
       </c>
@@ -19796,7 +19835,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1495</v>
       </c>
@@ -19819,7 +19858,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1497</v>
       </c>
@@ -19842,7 +19881,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1499</v>
       </c>
@@ -19865,7 +19904,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1501</v>
       </c>
@@ -19888,7 +19927,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1503</v>
       </c>
@@ -19911,7 +19950,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1505</v>
       </c>
@@ -19934,7 +19973,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1507</v>
       </c>
@@ -19957,7 +19996,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1509</v>
       </c>
@@ -19980,7 +20019,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1511</v>
       </c>
@@ -20003,7 +20042,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1513</v>
       </c>
@@ -20026,7 +20065,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1515</v>
       </c>
@@ -20049,7 +20088,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1517</v>
       </c>
@@ -20072,7 +20111,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1519</v>
       </c>
@@ -20095,7 +20134,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1521</v>
       </c>
@@ -20118,7 +20157,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1523</v>
       </c>
@@ -20141,7 +20180,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1525</v>
       </c>
@@ -20164,7 +20203,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1527</v>
       </c>
@@ -20187,7 +20226,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1529</v>
       </c>
@@ -20210,7 +20249,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1531</v>
       </c>
@@ -20233,7 +20272,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1533</v>
       </c>
@@ -20256,7 +20295,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1535</v>
       </c>
@@ -20279,7 +20318,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1537</v>
       </c>
@@ -20302,7 +20341,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1539</v>
       </c>
@@ -20331,34 +20370,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="89.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="89.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1106</v>
       </c>
@@ -20414,7 +20455,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -20470,7 +20511,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -20520,7 +20561,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1137</v>
       </c>
@@ -20576,12 +20617,12 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1142</v>
       </c>
@@ -20590,6 +20631,9 @@
       </c>
       <c r="G6" t="s">
         <v>1588</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1694</v>
       </c>
     </row>
   </sheetData>
